--- a/happiness/data/happiness_index.xlsx
+++ b/happiness/data/happiness_index.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="486">
   <si>
     <t>变量名</t>
   </si>
@@ -1428,6 +1428,54 @@
   </si>
   <si>
     <t>您对下列公共服务其他各领域的满意度-城乡基础设施</t>
+  </si>
+  <si>
+    <t>特征处理</t>
+  </si>
+  <si>
+    <t>获取年用于计算年龄</t>
+  </si>
+  <si>
+    <t>通过生日计算年龄</t>
+  </si>
+  <si>
+    <t>需要处理-8 -&gt; 8</t>
+  </si>
+  <si>
+    <t>处理-8 ???  2</t>
+  </si>
+  <si>
+    <t>处理-8 ???  0</t>
+  </si>
+  <si>
+    <t>处理-8 -&gt; 14</t>
+  </si>
+  <si>
+    <t>分组处理</t>
+  </si>
+  <si>
+    <t>处理-8 -&gt; 1</t>
+  </si>
+  <si>
+    <t>处理-8 -&gt; 3</t>
+  </si>
+  <si>
+    <t>处理-8 -&gt; 4</t>
+  </si>
+  <si>
+    <t>处理-8 -&gt; 2</t>
+  </si>
+  <si>
+    <t>处理-8 -&gt; 5</t>
+  </si>
+  <si>
+    <t>分组处理 有一个数据为null</t>
+  </si>
+  <si>
+    <t>处理-3 -1 -2  ???</t>
+  </si>
+  <si>
+    <t>处理-8 ??? 0</t>
   </si>
 </sst>
 </file>
@@ -1437,8 +1485,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1455,16 +1503,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1486,7 +1533,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1494,17 +1541,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1515,6 +1561,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1522,25 +1576,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1562,8 +1599,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1571,35 +1609,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1614,7 +1662,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,49 +1800,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1680,7 +1824,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,109 +1848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1808,66 +1862,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1891,8 +1889,64 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1900,8 +1954,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1913,10 +1967,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1925,137 +1979,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2077,7 +2131,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2650,16 +2713,16 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2667,16 +2730,16 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="10" t="s">
         <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2684,16 +2747,16 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2735,16 +2798,16 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -2769,16 +2832,16 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -2786,16 +2849,16 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -2803,16 +2866,16 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -2820,16 +2883,16 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -2837,16 +2900,16 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -2854,16 +2917,16 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -2871,16 +2934,16 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -2888,16 +2951,16 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -2905,16 +2968,16 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -2922,16 +2985,16 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -3041,16 +3104,16 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -3058,16 +3121,16 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="10" t="s">
         <v>134</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -3075,16 +3138,16 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="10" t="s">
         <v>134</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -3092,16 +3155,16 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="10" t="s">
         <v>134</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -3109,16 +3172,16 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="10" t="s">
         <v>134</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -3126,16 +3189,16 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="10" t="s">
         <v>134</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -3143,16 +3206,16 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="10" t="s">
         <v>134</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -3160,16 +3223,16 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="10" t="s">
         <v>153</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -3177,16 +3240,16 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="10" t="s">
         <v>153</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -3194,16 +3257,16 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="10" t="s">
         <v>153</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -3211,16 +3274,16 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="10" t="s">
         <v>153</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -3228,16 +3291,16 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="10" t="s">
         <v>153</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -3245,16 +3308,16 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="10" t="s">
         <v>153</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -3262,16 +3325,16 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="10" t="s">
         <v>153</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -3279,16 +3342,16 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="10" t="s">
         <v>153</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -3296,16 +3359,16 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="10" t="s">
         <v>153</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -3313,16 +3376,16 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="10" t="s">
         <v>153</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -3330,16 +3393,16 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="10" t="s">
         <v>153</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -3347,16 +3410,16 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="10" t="s">
         <v>153</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -3415,16 +3478,16 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="10" t="s">
         <v>199</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -3432,16 +3495,16 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="10" t="s">
         <v>199</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -3449,16 +3512,16 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="10" t="s">
         <v>206</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -3517,16 +3580,16 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="10" t="s">
         <v>218</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -3534,16 +3597,16 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="10" t="s">
         <v>218</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -3551,16 +3614,16 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="10" t="s">
         <v>218</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -3585,16 +3648,16 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="10" t="s">
         <v>235</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -3602,16 +3665,16 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -3619,16 +3682,16 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="10" t="s">
         <v>242</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -3636,16 +3699,16 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="10" t="s">
         <v>246</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -3653,16 +3716,16 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="10" t="s">
         <v>250</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -3670,16 +3733,16 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="10" t="s">
         <v>250</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -3687,16 +3750,16 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="10" t="s">
         <v>250</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -3704,16 +3767,16 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="10" t="s">
         <v>250</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -3806,16 +3869,16 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -3823,16 +3886,16 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -3840,16 +3903,16 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -3857,16 +3920,16 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E86" s="1" t="s">
@@ -3874,16 +3937,16 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -3891,16 +3954,16 @@
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -3908,16 +3971,16 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -3925,16 +3988,16 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -3942,16 +4005,16 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -3959,16 +4022,16 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -3976,16 +4039,16 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -3993,16 +4056,16 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -4010,16 +4073,16 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -4044,16 +4107,16 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="10" t="s">
         <v>325</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -4061,16 +4124,16 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E98" s="1" t="s">
@@ -4078,16 +4141,16 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="10" t="s">
         <v>325</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -4095,16 +4158,16 @@
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="10" t="s">
         <v>50</v>
       </c>
       <c r="E100" s="1" t="s">
@@ -4112,16 +4175,16 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="10" t="s">
         <v>69</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -4129,16 +4192,16 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E102" s="1" t="s">
@@ -4146,16 +4209,16 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="10" t="s">
         <v>344</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -4163,16 +4226,16 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="10" t="s">
         <v>231</v>
       </c>
       <c r="E104" s="1" t="s">
@@ -4180,16 +4243,16 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="10" t="s">
         <v>235</v>
       </c>
       <c r="E105" s="1" t="s">
@@ -4197,16 +4260,16 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="10" t="s">
         <v>242</v>
       </c>
       <c r="E106" s="1" t="s">
@@ -4214,16 +4277,16 @@
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E107" s="1" t="s">
@@ -4231,16 +4294,16 @@
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="10" t="s">
         <v>50</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -4248,16 +4311,16 @@
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="10" t="s">
         <v>69</v>
       </c>
       <c r="E109" s="1" t="s">
@@ -4265,16 +4328,16 @@
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="6" t="s">
+      <c r="A110" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="10" t="s">
         <v>366</v>
       </c>
       <c r="E110" s="1" t="s">
@@ -4282,16 +4345,16 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="6" t="s">
+      <c r="A111" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -4299,16 +4362,16 @@
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="10" t="s">
         <v>50</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -4316,16 +4379,16 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="10" t="s">
         <v>69</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -4333,16 +4396,16 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="10" t="s">
         <v>366</v>
       </c>
       <c r="E114" s="1" t="s">
@@ -4418,16 +4481,16 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C119" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E119" s="1" t="s">
@@ -4435,16 +4498,16 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="6" t="s">
+      <c r="A120" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C120" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="10" t="s">
         <v>401</v>
       </c>
       <c r="E120" s="1" t="s">
@@ -4452,16 +4515,16 @@
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="6" t="s">
+      <c r="A121" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="C121" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D121" s="10" t="s">
         <v>401</v>
       </c>
       <c r="E121" s="1" t="s">
@@ -4469,16 +4532,16 @@
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="6" t="s">
+      <c r="A122" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C122" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="10" t="s">
         <v>401</v>
       </c>
       <c r="E122" s="1" t="s">
@@ -4486,16 +4549,16 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="6" t="s">
+      <c r="A123" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="C123" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="10" t="s">
         <v>401</v>
       </c>
       <c r="E123" s="1" t="s">
@@ -4503,16 +4566,16 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="6" t="s">
+      <c r="A124" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="C124" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="10" t="s">
         <v>401</v>
       </c>
       <c r="E124" s="1" t="s">
@@ -4520,16 +4583,16 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="6" t="s">
+      <c r="A125" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="C125" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="10" t="s">
         <v>401</v>
       </c>
       <c r="E125" s="1" t="s">
@@ -4537,16 +4600,16 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="6" t="s">
+      <c r="A126" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C126" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="10" t="s">
         <v>401</v>
       </c>
       <c r="E126" s="1" t="s">
@@ -4554,16 +4617,16 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="6" t="s">
+      <c r="A127" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="C127" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D127" s="10" t="s">
         <v>401</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -4571,16 +4634,16 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="6" t="s">
+      <c r="A128" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="C128" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="10" t="s">
         <v>401</v>
       </c>
       <c r="E128" s="1" t="s">
@@ -4588,16 +4651,16 @@
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="6" t="s">
+      <c r="A129" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C129" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="D129" s="10" t="s">
         <v>401</v>
       </c>
       <c r="E129" s="1" t="s">
@@ -4605,16 +4668,16 @@
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="6" t="s">
+      <c r="A130" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="C130" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D130" s="10" t="s">
         <v>401</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -4622,16 +4685,16 @@
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="6" t="s">
+      <c r="A131" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="C131" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="10" t="s">
         <v>401</v>
       </c>
       <c r="E131" s="1" t="s">
@@ -4639,16 +4702,16 @@
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="6" t="s">
+      <c r="A132" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="C132" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="10" t="s">
         <v>401</v>
       </c>
       <c r="E132" s="1" t="s">
@@ -4656,16 +4719,16 @@
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="6" t="s">
+      <c r="A133" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="C133" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D133" s="10" t="s">
         <v>441</v>
       </c>
       <c r="E133" s="1" t="s">
@@ -4673,16 +4736,16 @@
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="6" t="s">
+      <c r="A134" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="C134" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="10" t="s">
         <v>445</v>
       </c>
       <c r="E134" s="1" t="s">
@@ -4690,16 +4753,16 @@
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="6" t="s">
+      <c r="A135" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="C135" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D135" s="10" t="s">
         <v>445</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -4707,16 +4770,16 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="6" t="s">
+      <c r="A136" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C136" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" s="10" t="s">
         <v>445</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -4724,16 +4787,16 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="6" t="s">
+      <c r="A137" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C137" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D137" s="10" t="s">
         <v>445</v>
       </c>
       <c r="E137" s="1" t="s">
@@ -4741,16 +4804,16 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="6" t="s">
+      <c r="A138" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="C138" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D138" s="10" t="s">
         <v>445</v>
       </c>
       <c r="E138" s="1" t="s">
@@ -4758,16 +4821,16 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="6" t="s">
+      <c r="A139" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="C139" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D139" s="10" t="s">
         <v>445</v>
       </c>
       <c r="E139" s="1" t="s">
@@ -4775,16 +4838,16 @@
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="6" t="s">
+      <c r="A140" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="C140" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="D140" s="10" t="s">
         <v>445</v>
       </c>
       <c r="E140" s="1" t="s">
@@ -4792,16 +4855,16 @@
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="6" t="s">
+      <c r="A141" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="C141" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="D141" s="10" t="s">
         <v>445</v>
       </c>
       <c r="E141" s="1" t="s">
@@ -4809,16 +4872,16 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="6" t="s">
+      <c r="A142" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="C142" s="6" t="s">
+      <c r="C142" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D142" s="10" t="s">
         <v>445</v>
       </c>
       <c r="E142" s="1" t="s">
@@ -4838,22 +4901,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="83.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="54.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88333333333333" style="1"/>
+    <col min="5" max="5" width="8.88333333333333" style="1"/>
+    <col min="6" max="6" width="25.375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4868,6 +4933,9 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
@@ -4969,8 +5037,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="2" t="s">
+    <row r="8" s="1" customFormat="1" spans="1:6">
+      <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4984,6 +5052,9 @@
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
@@ -5003,7 +5074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:5">
+    <row r="10" s="1" customFormat="1" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -5019,8 +5090,11 @@
       <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:5">
+      <c r="F10" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -5036,8 +5110,11 @@
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:5">
+      <c r="F11" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -5053,8 +5130,11 @@
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:5">
+      <c r="F12" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -5070,8 +5150,11 @@
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:5">
+      <c r="F13" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
@@ -5087,8 +5170,11 @@
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:5">
+      <c r="F14" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
@@ -5104,8 +5190,11 @@
       <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:5">
+      <c r="F15" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>66</v>
       </c>
@@ -5120,6 +5209,9 @@
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
@@ -5173,7 +5265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:5">
+    <row r="20" s="1" customFormat="1" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>112</v>
       </c>
@@ -5189,8 +5281,11 @@
       <c r="E20" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:5">
+      <c r="F20" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>116</v>
       </c>
@@ -5206,8 +5301,11 @@
       <c r="E21" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:5">
+      <c r="F21" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>119</v>
       </c>
@@ -5222,6 +5320,9 @@
       </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:5">
@@ -5241,7 +5342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:5">
+    <row r="24" s="1" customFormat="1" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>187</v>
       </c>
@@ -5257,8 +5358,11 @@
       <c r="E24" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:5">
+      <c r="F24" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>190</v>
       </c>
@@ -5274,8 +5378,11 @@
       <c r="E25" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:5">
+      <c r="F25" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>193</v>
       </c>
@@ -5291,8 +5398,11 @@
       <c r="E26" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:5">
+      <c r="F26" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>207</v>
       </c>
@@ -5307,6 +5417,9 @@
       </c>
       <c r="E27" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:5">
@@ -5326,7 +5439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:5">
+    <row r="29" s="1" customFormat="1" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>215</v>
       </c>
@@ -5341,6 +5454,9 @@
       </c>
       <c r="E29" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:5">
@@ -5364,13 +5480,13 @@
       <c r="A31" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="8" t="s">
         <v>235</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -5381,13 +5497,13 @@
       <c r="A32" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -5398,13 +5514,13 @@
       <c r="A33" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="8" t="s">
         <v>242</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -5415,20 +5531,20 @@
       <c r="A34" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="8" t="s">
         <v>246</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:5">
+    <row r="35" s="1" customFormat="1" spans="1:6">
       <c r="A35" s="2" t="s">
         <v>260</v>
       </c>
@@ -5444,8 +5560,11 @@
       <c r="E35" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:5">
+      <c r="F35" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:6">
       <c r="A36" s="2" t="s">
         <v>264</v>
       </c>
@@ -5461,8 +5580,11 @@
       <c r="E36" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:5">
+      <c r="F36" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:6">
       <c r="A37" s="2" t="s">
         <v>267</v>
       </c>
@@ -5478,8 +5600,11 @@
       <c r="E37" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:5">
+      <c r="F37" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:6">
       <c r="A38" s="2" t="s">
         <v>271</v>
       </c>
@@ -5495,8 +5620,11 @@
       <c r="E38" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:5">
+      <c r="F38" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:6">
       <c r="A39" s="2" t="s">
         <v>275</v>
       </c>
@@ -5511,6 +5639,9 @@
       </c>
       <c r="E39" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:5">
@@ -5530,7 +5661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:5">
+    <row r="41" s="1" customFormat="1" spans="1:6">
       <c r="A41" s="2" t="s">
         <v>379</v>
       </c>
@@ -5546,8 +5677,11 @@
       <c r="E41" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:5">
+      <c r="F41" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:6">
       <c r="A42" s="2" t="s">
         <v>383</v>
       </c>
@@ -5563,8 +5697,11 @@
       <c r="E42" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:5">
+      <c r="F42" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:6">
       <c r="A43" s="2" t="s">
         <v>387</v>
       </c>
@@ -5580,8 +5717,11 @@
       <c r="E43" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:5">
+      <c r="F43" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:6">
       <c r="A44" s="2" t="s">
         <v>391</v>
       </c>
@@ -5596,6 +5736,9 @@
       </c>
       <c r="E44" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>481</v>
       </c>
     </row>
   </sheetData>

--- a/happiness/data/happiness_index.xlsx
+++ b/happiness/data/happiness_index.xlsx
@@ -1483,8 +1483,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1504,6 +1504,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1518,28 +1533,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -1547,10 +1540,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1561,23 +1555,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1599,9 +1578,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1616,7 +1618,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1631,17 +1633,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1674,13 +1674,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,13 +1698,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1710,13 +1740,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1734,91 +1818,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1830,25 +1830,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1872,6 +1872,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1888,9 +1903,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1906,32 +1923,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1959,6 +1950,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1967,10 +1967,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1979,16 +1979,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1997,119 +1997,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2129,9 +2129,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -2464,8 +2461,8 @@
   <sheetPr/>
   <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -2713,16 +2710,16 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2730,16 +2727,16 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2747,16 +2744,16 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2798,16 +2795,16 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -2832,16 +2829,16 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -2849,16 +2846,16 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -2866,16 +2863,16 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -2883,16 +2880,16 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -2900,16 +2897,16 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -2917,16 +2914,16 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -2934,16 +2931,16 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -2951,16 +2948,16 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -2968,16 +2965,16 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -2985,16 +2982,16 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -3104,16 +3101,16 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>130</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -3121,16 +3118,16 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>134</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -3138,16 +3135,16 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>134</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -3155,16 +3152,16 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>134</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -3172,16 +3169,16 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>134</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -3189,16 +3186,16 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>134</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -3206,16 +3203,16 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>134</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -3223,16 +3220,16 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>153</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -3240,16 +3237,16 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>153</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -3257,16 +3254,16 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>153</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -3274,16 +3271,16 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>153</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -3291,16 +3288,16 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="9" t="s">
         <v>153</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -3308,16 +3305,16 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>153</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -3325,16 +3322,16 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="9" t="s">
         <v>153</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -3342,16 +3339,16 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="9" t="s">
         <v>153</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -3359,16 +3356,16 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>153</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -3376,16 +3373,16 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>153</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -3393,16 +3390,16 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>153</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -3410,16 +3407,16 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="9" t="s">
         <v>153</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -3478,16 +3475,16 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="9" t="s">
         <v>199</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -3495,16 +3492,16 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="9" t="s">
         <v>199</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -3512,16 +3509,16 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="9" t="s">
         <v>206</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -3580,16 +3577,16 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="9" t="s">
         <v>218</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -3597,16 +3594,16 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="9" t="s">
         <v>218</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -3614,16 +3611,16 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="9" t="s">
         <v>218</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -3648,16 +3645,16 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="9" t="s">
         <v>235</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -3665,16 +3662,16 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -3682,16 +3679,16 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="9" t="s">
         <v>242</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -3699,16 +3696,16 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="9" t="s">
         <v>246</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -3716,16 +3713,16 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="9" t="s">
         <v>250</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -3733,16 +3730,16 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="9" t="s">
         <v>250</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -3750,16 +3747,16 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="9" t="s">
         <v>250</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -3767,16 +3764,16 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="9" t="s">
         <v>250</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -3869,16 +3866,16 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -3886,16 +3883,16 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -3903,16 +3900,16 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -3920,16 +3917,16 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E86" s="1" t="s">
@@ -3937,16 +3934,16 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -3954,16 +3951,16 @@
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D88" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -3971,16 +3968,16 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -3988,16 +3985,16 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D90" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -4005,16 +4002,16 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -4022,16 +4019,16 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -4039,16 +4036,16 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -4056,16 +4053,16 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="D94" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -4073,16 +4070,16 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -4107,16 +4104,16 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="D97" s="9" t="s">
         <v>325</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -4124,16 +4121,16 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D98" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E98" s="1" t="s">
@@ -4141,16 +4138,16 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="D99" s="9" t="s">
         <v>325</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -4158,16 +4155,16 @@
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E100" s="1" t="s">
@@ -4175,16 +4172,16 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D101" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -4192,16 +4189,16 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D102" s="9" t="s">
         <v>126</v>
       </c>
       <c r="E102" s="1" t="s">
@@ -4209,16 +4206,16 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="D103" s="9" t="s">
         <v>344</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -4226,16 +4223,16 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D104" s="9" t="s">
         <v>231</v>
       </c>
       <c r="E104" s="1" t="s">
@@ -4243,16 +4240,16 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D105" s="10" t="s">
+      <c r="D105" s="9" t="s">
         <v>235</v>
       </c>
       <c r="E105" s="1" t="s">
@@ -4260,16 +4257,16 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="D106" s="10" t="s">
+      <c r="D106" s="9" t="s">
         <v>242</v>
       </c>
       <c r="E106" s="1" t="s">
@@ -4277,16 +4274,16 @@
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="D107" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E107" s="1" t="s">
@@ -4294,16 +4291,16 @@
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D108" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -4311,16 +4308,16 @@
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C109" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="D109" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E109" s="1" t="s">
@@ -4328,16 +4325,16 @@
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D110" s="10" t="s">
+      <c r="D110" s="9" t="s">
         <v>366</v>
       </c>
       <c r="E110" s="1" t="s">
@@ -4345,16 +4342,16 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -4362,16 +4359,16 @@
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D112" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -4379,16 +4376,16 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D113" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -4396,16 +4393,16 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="D114" s="10" t="s">
+      <c r="D114" s="9" t="s">
         <v>366</v>
       </c>
       <c r="E114" s="1" t="s">
@@ -4481,16 +4478,16 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D119" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E119" s="1" t="s">
@@ -4498,16 +4495,16 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="D120" s="9" t="s">
         <v>401</v>
       </c>
       <c r="E120" s="1" t="s">
@@ -4515,16 +4512,16 @@
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="D121" s="9" t="s">
         <v>401</v>
       </c>
       <c r="E121" s="1" t="s">
@@ -4532,16 +4529,16 @@
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="D122" s="10" t="s">
+      <c r="D122" s="9" t="s">
         <v>401</v>
       </c>
       <c r="E122" s="1" t="s">
@@ -4549,16 +4546,16 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="D123" s="9" t="s">
         <v>401</v>
       </c>
       <c r="E123" s="1" t="s">
@@ -4566,16 +4563,16 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="D124" s="10" t="s">
+      <c r="D124" s="9" t="s">
         <v>401</v>
       </c>
       <c r="E124" s="1" t="s">
@@ -4583,16 +4580,16 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="D125" s="9" t="s">
         <v>401</v>
       </c>
       <c r="E125" s="1" t="s">
@@ -4600,16 +4597,16 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="D126" s="9" t="s">
         <v>401</v>
       </c>
       <c r="E126" s="1" t="s">
@@ -4617,16 +4614,16 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="D127" s="9" t="s">
         <v>401</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -4634,16 +4631,16 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="C128" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="D128" s="9" t="s">
         <v>401</v>
       </c>
       <c r="E128" s="1" t="s">
@@ -4651,16 +4648,16 @@
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D129" s="9" t="s">
         <v>401</v>
       </c>
       <c r="E129" s="1" t="s">
@@ -4668,16 +4665,16 @@
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D130" s="9" t="s">
         <v>401</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -4685,16 +4682,16 @@
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="C131" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="D131" s="9" t="s">
         <v>401</v>
       </c>
       <c r="E131" s="1" t="s">
@@ -4702,16 +4699,16 @@
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="C132" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="D132" s="10" t="s">
+      <c r="D132" s="9" t="s">
         <v>401</v>
       </c>
       <c r="E132" s="1" t="s">
@@ -4719,16 +4716,16 @@
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="C133" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="D133" s="9" t="s">
         <v>441</v>
       </c>
       <c r="E133" s="1" t="s">
@@ -4736,16 +4733,16 @@
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="9" t="s">
+      <c r="A134" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C134" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="D134" s="10" t="s">
+      <c r="D134" s="9" t="s">
         <v>445</v>
       </c>
       <c r="E134" s="1" t="s">
@@ -4753,16 +4750,16 @@
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="9" t="s">
+      <c r="A135" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="C135" s="9" t="s">
+      <c r="C135" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="D135" s="10" t="s">
+      <c r="D135" s="9" t="s">
         <v>445</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -4770,16 +4767,16 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="9" t="s">
+      <c r="A136" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="C136" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="D136" s="10" t="s">
+      <c r="D136" s="9" t="s">
         <v>445</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -4787,16 +4784,16 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="9" t="s">
+      <c r="A137" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="C137" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="D137" s="10" t="s">
+      <c r="D137" s="9" t="s">
         <v>445</v>
       </c>
       <c r="E137" s="1" t="s">
@@ -4804,16 +4801,16 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="9" t="s">
+      <c r="A138" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C138" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="D138" s="10" t="s">
+      <c r="D138" s="9" t="s">
         <v>445</v>
       </c>
       <c r="E138" s="1" t="s">
@@ -4821,16 +4818,16 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C139" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="D139" s="10" t="s">
+      <c r="D139" s="9" t="s">
         <v>445</v>
       </c>
       <c r="E139" s="1" t="s">
@@ -4838,16 +4835,16 @@
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="C140" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="D140" s="10" t="s">
+      <c r="D140" s="9" t="s">
         <v>445</v>
       </c>
       <c r="E140" s="1" t="s">
@@ -4855,16 +4852,16 @@
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="9" t="s">
+      <c r="A141" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C141" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="D141" s="10" t="s">
+      <c r="D141" s="9" t="s">
         <v>445</v>
       </c>
       <c r="E141" s="1" t="s">
@@ -4872,16 +4869,16 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="C142" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="D142" s="10" t="s">
+      <c r="D142" s="9" t="s">
         <v>445</v>
       </c>
       <c r="E142" s="1" t="s">
@@ -4904,7 +4901,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -5480,13 +5477,13 @@
       <c r="A31" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>235</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -5497,13 +5494,13 @@
       <c r="A32" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -5514,13 +5511,13 @@
       <c r="A33" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>242</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -5531,13 +5528,13 @@
       <c r="A34" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>246</v>
       </c>
       <c r="E34" s="1" t="s">
